--- a/Upload-JD/JD_Updated.xlsx
+++ b/Upload-JD/JD_Updated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t xml:space="preserve">Job Title</t>
   </si>
@@ -43,14 +43,13 @@
     <t xml:space="preserve">Primary Skill</t>
   </si>
   <si>
-    <t xml:space="preserve">Business Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduate in any stream
-MBA Preferred</t>
+    <t xml:space="preserve">Android Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science</t>
   </si>
   <si>
     <t xml:space="preserve">We are currently looking for an Android app developer
@@ -77,10 +76,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Android,JavaScrip,Kotlin,Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android</t>
+    <t xml:space="preserve">Android,Developer,JavaScrip,Kotlin,Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android,Kotlin</t>
   </si>
   <si>
     <t xml:space="preserve">Azure Cloud Architect</t>
@@ -159,9 +158,6 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Senior Java developer with hands on experience in Liferay, MySQL, JBoss ESB. Good in communication, Estimation skills and client handling. Having knowledge on designing skills.</t>
   </si>
   <si>
@@ -231,10 +227,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -331,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +340,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -387,7 +378,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.85"/>
@@ -428,19 +419,19 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>44625</v>
+      <c r="C2" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -521,82 +512,82 @@
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
